--- a/SuppXLS/Scen_PWR_High_RNW.xlsx
+++ b/SuppXLS/Scen_PWR_High_RNW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24BA98-1681-417F-A954-CF54FBECECB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8463A95B-D5B0-47E1-870E-704062E6B210}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="5" r:id="rId1"/>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M8" s="12"/>
     </row>
